--- a/data/coded_segments/zm_5_3.xlsx
+++ b/data/coded_segments/zm_5_3.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0275A0-FB9F-EA4C-B4BD-20A913DDF445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1970,7 +1966,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2120,10 +2116,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2146,7 +2145,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2158,7 +2157,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2175,9 +2174,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2205,14 +2204,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2240,6 +2256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2391,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2490,7 +2523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -4827,7 +4860,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -4868,7 +4901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -5073,7 +5106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -5196,7 +5229,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -5237,7 +5270,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -6549,7 +6582,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -6590,7 +6623,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -6631,7 +6664,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -6672,7 +6705,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -6754,7 +6787,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6795,7 +6828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -6836,7 +6869,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -6877,7 +6910,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -6918,7 +6951,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -7205,7 +7238,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -7451,7 +7484,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7779,7 +7812,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -7820,7 +7853,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -8476,7 +8509,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8558,7 +8591,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8640,7 +8673,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -8763,7 +8796,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -8804,7 +8837,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -8845,7 +8878,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -8886,7 +8919,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -9009,7 +9042,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>13</v>
       </c>
@@ -9050,7 +9083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>13</v>
       </c>
@@ -9091,7 +9124,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
@@ -9132,7 +9165,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
@@ -9214,7 +9247,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9296,7 +9329,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>13</v>
       </c>
@@ -9337,7 +9370,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -9378,7 +9411,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -9419,7 +9452,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -9460,7 +9493,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -11510,7 +11543,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_5_3.xlsx
+++ b/data/coded_segments/zm_5_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0275A0-FB9F-EA4C-B4BD-20A913DDF445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A7DB31-B148-184F-B3B7-3ED33027F296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="632">
   <si>
     <t>Color</t>
   </si>
@@ -299,13 +299,19 @@
     <t>7/5/18 13:19:00</t>
   </si>
   <si>
-    <t>2: 3109</t>
+    <t>2: 3110</t>
   </si>
   <si>
     <t>2: 3111</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/30/19 18:24:29</t>
   </si>
   <si>
     <t>2: 3225</t>
@@ -363,12 +369,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>2: 3110</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>C</t>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>2: 6833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16</t>
   </si>
   <si>
     <t>1: 1158</t>
@@ -1961,6 +1964,27 @@
   </si>
   <si>
     <t>7/7/18 18:17:00</t>
+  </si>
+  <si>
+    <t>1/30/19 18:24:21</t>
+  </si>
+  <si>
+    <t>1/30/19 18:24:53</t>
+  </si>
+  <si>
+    <t>1/30/19 18:24:57</t>
+  </si>
+  <si>
+    <t>1/30/19 18:25:07</t>
+  </si>
+  <si>
+    <t>1/30/19 18:27:09</t>
+  </si>
+  <si>
+    <t>1/30/19 18:27:24</t>
+  </si>
+  <si>
+    <t>1/30/19 18:27:42</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3293,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="K21" s="4">
-        <v>1.0532E-2</v>
+        <v>1.0531858873091101E-2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3319,16 +3343,16 @@
         <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J22" s="3">
         <v>3</v>
@@ -3360,16 +3384,16 @@
         <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J23" s="3">
         <v>2</v>
@@ -3401,16 +3425,16 @@
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
@@ -3442,16 +3466,16 @@
         <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J25" s="3">
         <v>5</v>
@@ -3483,16 +3507,16 @@
         <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J26" s="3">
         <v>3</v>
@@ -3524,16 +3548,16 @@
         <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
@@ -3562,7 +3586,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>52</v>
@@ -3603,7 +3627,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>87</v>
@@ -3644,7 +3668,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>56</v>
@@ -3685,10 +3709,10 @@
         <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>92</v>
@@ -3697,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="J31" s="3">
         <v>2</v>
@@ -3934,16 +3958,16 @@
         <v>122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
@@ -4016,16 +4040,16 @@
         <v>123</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J39" s="3">
         <v>2</v>
@@ -4098,16 +4122,16 @@
         <v>124</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -4180,16 +4204,16 @@
         <v>125</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J43" s="3">
         <v>5</v>
@@ -4262,16 +4286,16 @@
         <v>126</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J45" s="3">
         <v>3</v>
@@ -4344,16 +4368,16 @@
         <v>127</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J47" s="3">
         <v>2</v>
@@ -4435,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J49" s="3">
         <v>2</v>
@@ -5747,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="J81" s="3">
         <v>2</v>
@@ -5817,7 +5841,7 @@
         <v>216</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>217</v>
@@ -5858,7 +5882,7 @@
         <v>216</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>234</v>
@@ -5899,7 +5923,7 @@
         <v>216</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>221</v>
@@ -5940,7 +5964,7 @@
         <v>216</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>237</v>
@@ -6198,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="J92" s="3">
         <v>2</v>
@@ -6312,16 +6336,16 @@
         <v>135</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J95" s="3">
         <v>27</v>
@@ -6353,16 +6377,16 @@
         <v>140</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J96" s="3">
         <v>5</v>
@@ -6374,7 +6398,7 @@
         <v>20</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6394,16 +6418,16 @@
         <v>158</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J97" s="3">
         <v>6</v>
@@ -6415,7 +6439,7 @@
         <v>20</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6435,16 +6459,16 @@
         <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J98" s="3">
         <v>11</v>
@@ -6456,7 +6480,7 @@
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6476,16 +6500,16 @@
         <v>183</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J99" s="3">
         <v>4</v>
@@ -6497,7 +6521,7 @@
         <v>20</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6517,16 +6541,16 @@
         <v>174</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J100" s="3">
         <v>5</v>
@@ -6538,7 +6562,7 @@
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6558,16 +6582,16 @@
         <v>187</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J101" s="3">
         <v>30</v>
@@ -6579,7 +6603,7 @@
         <v>20</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -6593,22 +6617,22 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J102" s="3">
         <v>117</v>
@@ -6620,7 +6644,7 @@
         <v>20</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="105" x14ac:dyDescent="0.2">
@@ -6628,28 +6652,28 @@
         <v>13</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J103" s="3">
         <v>398</v>
@@ -6661,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -6675,22 +6699,22 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J104" s="3">
         <v>196</v>
@@ -6702,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -6716,22 +6740,22 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J105" s="3">
         <v>161</v>
@@ -6743,7 +6767,7 @@
         <v>20</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6757,22 +6781,22 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J106" s="3">
         <v>14</v>
@@ -6784,7 +6808,7 @@
         <v>20</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -6798,22 +6822,22 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J107" s="3">
         <v>131</v>
@@ -6825,7 +6849,7 @@
         <v>20</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -6839,22 +6863,22 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J108" s="3">
         <v>138</v>
@@ -6866,7 +6890,7 @@
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -6880,22 +6904,22 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J109" s="3">
         <v>111</v>
@@ -6907,7 +6931,7 @@
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -6915,28 +6939,28 @@
         <v>13</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J110" s="3">
         <v>83</v>
@@ -6948,7 +6972,7 @@
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -6962,22 +6986,22 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J111" s="3">
         <v>241</v>
@@ -6989,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7003,7 +7027,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
@@ -7012,13 +7036,13 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J112" s="3">
         <v>7</v>
@@ -7030,7 +7054,7 @@
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7044,22 +7068,22 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J113" s="3">
         <v>16</v>
@@ -7071,7 +7095,7 @@
         <v>20</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7085,22 +7109,22 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J114" s="3">
         <v>10</v>
@@ -7112,7 +7136,7 @@
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7126,22 +7150,22 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J115" s="3">
         <v>72</v>
@@ -7153,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7167,22 +7191,22 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J116" s="3">
         <v>25</v>
@@ -7194,7 +7218,7 @@
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7208,22 +7232,22 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J117" s="3">
         <v>9</v>
@@ -7235,7 +7259,7 @@
         <v>20</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7249,22 +7273,22 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J118" s="3">
         <v>14</v>
@@ -7276,7 +7300,7 @@
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7290,22 +7314,22 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J119" s="3">
         <v>11</v>
@@ -7317,7 +7341,7 @@
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7331,13 +7355,13 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>207</v>
@@ -7346,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J120" s="3">
         <v>9</v>
@@ -7358,7 +7382,7 @@
         <v>20</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7372,22 +7396,22 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J121" s="3">
         <v>9</v>
@@ -7399,7 +7423,7 @@
         <v>20</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7413,22 +7437,22 @@
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J122" s="3">
         <v>13</v>
@@ -7440,7 +7464,7 @@
         <v>20</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7454,22 +7478,22 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J123" s="3">
         <v>10</v>
@@ -7481,7 +7505,7 @@
         <v>20</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7495,22 +7519,22 @@
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J124" s="3">
         <v>11</v>
@@ -7522,7 +7546,7 @@
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7536,22 +7560,22 @@
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J125" s="3">
         <v>10</v>
@@ -7563,7 +7587,7 @@
         <v>20</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7577,22 +7601,22 @@
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J126" s="3">
         <v>9</v>
@@ -7604,7 +7628,7 @@
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7618,22 +7642,22 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J127" s="3">
         <v>9</v>
@@ -7645,7 +7669,7 @@
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7659,22 +7683,22 @@
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J128" s="3">
         <v>13</v>
@@ -7686,7 +7710,7 @@
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7700,22 +7724,22 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J129" s="3">
         <v>25</v>
@@ -7727,7 +7751,7 @@
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7741,22 +7765,22 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J130" s="3">
         <v>10</v>
@@ -7768,7 +7792,7 @@
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7782,22 +7806,22 @@
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J131" s="3">
         <v>9</v>
@@ -7809,7 +7833,7 @@
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7823,22 +7847,22 @@
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J132" s="3">
         <v>14</v>
@@ -7850,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -7864,22 +7888,22 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J133" s="3">
         <v>11</v>
@@ -7891,7 +7915,7 @@
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7905,22 +7929,22 @@
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J134" s="3">
         <v>10</v>
@@ -7932,7 +7956,7 @@
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7946,22 +7970,22 @@
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J135" s="3">
         <v>11</v>
@@ -7973,7 +7997,7 @@
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7987,13 +8011,13 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>207</v>
@@ -8002,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J136" s="3">
         <v>9</v>
@@ -8014,7 +8038,7 @@
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8028,22 +8052,22 @@
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J137" s="3">
         <v>9</v>
@@ -8055,7 +8079,7 @@
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8069,22 +8093,22 @@
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J138" s="3">
         <v>9</v>
@@ -8096,7 +8120,7 @@
         <v>20</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8110,22 +8134,22 @@
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J139" s="3">
         <v>9</v>
@@ -8137,7 +8161,7 @@
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8151,16 +8175,16 @@
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -8178,7 +8202,7 @@
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8192,22 +8216,22 @@
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J141" s="3">
         <v>5</v>
@@ -8219,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8233,22 +8257,22 @@
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J142" s="3">
         <v>5</v>
@@ -8260,7 +8284,7 @@
         <v>20</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8274,22 +8298,22 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J143" s="3">
         <v>12</v>
@@ -8301,7 +8325,7 @@
         <v>20</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8315,22 +8339,22 @@
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J144" s="3">
         <v>7</v>
@@ -8342,7 +8366,7 @@
         <v>20</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8356,22 +8380,22 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J145" s="3">
         <v>8</v>
@@ -8383,7 +8407,7 @@
         <v>20</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8397,22 +8421,22 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J146" s="3">
         <v>8</v>
@@ -8424,7 +8448,7 @@
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8438,22 +8462,22 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J147" s="3">
         <v>4</v>
@@ -8465,7 +8489,7 @@
         <v>20</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8479,22 +8503,22 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J148" s="3">
         <v>20</v>
@@ -8506,7 +8530,7 @@
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8520,22 +8544,22 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J149" s="3">
         <v>19</v>
@@ -8547,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8561,22 +8585,22 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J150" s="3">
         <v>14</v>
@@ -8588,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -8596,28 +8620,28 @@
         <v>13</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J151" s="3">
         <v>181</v>
@@ -8629,7 +8653,7 @@
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8643,22 +8667,22 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J152" s="3">
         <v>21</v>
@@ -8670,7 +8694,7 @@
         <v>20</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -8678,28 +8702,28 @@
         <v>13</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J153" s="3">
         <v>175</v>
@@ -8711,7 +8735,7 @@
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8725,22 +8749,22 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J154" s="3">
         <v>21</v>
@@ -8752,7 +8776,7 @@
         <v>20</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8766,7 +8790,7 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>16</v>
@@ -8775,13 +8799,13 @@
         <v>29</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J155" s="3">
         <v>21</v>
@@ -8793,7 +8817,7 @@
         <v>20</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="90" x14ac:dyDescent="0.2">
@@ -8807,22 +8831,22 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J156" s="3">
         <v>219</v>
@@ -8834,7 +8858,7 @@
         <v>20</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -8848,22 +8872,22 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J157" s="3">
         <v>201</v>
@@ -8875,7 +8899,7 @@
         <v>20</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8889,7 +8913,7 @@
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>23</v>
@@ -8898,13 +8922,13 @@
         <v>29</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J158" s="3">
         <v>96</v>
@@ -8916,7 +8940,7 @@
         <v>20</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8930,22 +8954,22 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J159" s="3">
         <v>85</v>
@@ -8957,7 +8981,7 @@
         <v>20</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8971,22 +8995,22 @@
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J160" s="3">
         <v>29</v>
@@ -8998,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9012,22 +9036,22 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J161" s="3">
         <v>29</v>
@@ -9039,7 +9063,7 @@
         <v>20</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -9053,22 +9077,22 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J162" s="3">
         <v>85</v>
@@ -9080,7 +9104,7 @@
         <v>20</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="135" x14ac:dyDescent="0.2">
@@ -9094,22 +9118,22 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J163" s="3">
         <v>412</v>
@@ -9121,7 +9145,7 @@
         <v>20</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -9135,22 +9159,22 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H164" s="3">
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J164" s="3">
         <v>78</v>
@@ -9162,7 +9186,7 @@
         <v>20</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -9176,22 +9200,22 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J165" s="3">
         <v>73</v>
@@ -9203,7 +9227,7 @@
         <v>20</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9217,22 +9241,22 @@
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J166" s="3">
         <v>1</v>
@@ -9244,7 +9268,7 @@
         <v>20</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -9258,22 +9282,22 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J167" s="3">
         <v>78</v>
@@ -9285,7 +9309,7 @@
         <v>20</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9299,7 +9323,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>16</v>
@@ -9308,13 +9332,13 @@
         <v>29</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J168" s="3">
         <v>14</v>
@@ -9326,7 +9350,7 @@
         <v>20</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="90" x14ac:dyDescent="0.2">
@@ -9340,22 +9364,22 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J169" s="3">
         <v>269</v>
@@ -9367,7 +9391,7 @@
         <v>20</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -9381,22 +9405,22 @@
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J170" s="3">
         <v>183</v>
@@ -9408,7 +9432,7 @@
         <v>20</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -9422,22 +9446,22 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J171" s="3">
         <v>178</v>
@@ -9449,7 +9473,7 @@
         <v>20</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -9457,28 +9481,28 @@
         <v>13</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J172" s="3">
         <v>232</v>
@@ -9490,7 +9514,7 @@
         <v>20</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -9498,28 +9522,28 @@
         <v>13</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J173" s="3">
         <v>308</v>
@@ -9531,7 +9555,7 @@
         <v>20</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9545,22 +9569,22 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J174" s="3">
         <v>4</v>
@@ -9572,7 +9596,7 @@
         <v>20</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9586,22 +9610,22 @@
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J175" s="3">
         <v>10</v>
@@ -9613,7 +9637,7 @@
         <v>20</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9627,22 +9651,22 @@
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J176" s="3">
         <v>24</v>
@@ -9654,7 +9678,7 @@
         <v>20</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9668,22 +9692,22 @@
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J177" s="3">
         <v>27</v>
@@ -9695,7 +9719,7 @@
         <v>20</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9709,16 +9733,16 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
@@ -9736,7 +9760,7 @@
         <v>20</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9750,22 +9774,22 @@
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J179" s="3">
         <v>13</v>
@@ -9777,7 +9801,7 @@
         <v>20</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9791,22 +9815,22 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J180" s="3">
         <v>9</v>
@@ -9818,7 +9842,7 @@
         <v>20</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9832,22 +9856,22 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J181" s="3">
         <v>8</v>
@@ -9859,7 +9883,7 @@
         <v>20</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9873,22 +9897,22 @@
         <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H182" s="3">
         <v>0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J182" s="3">
         <v>9</v>
@@ -9900,7 +9924,7 @@
         <v>20</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9914,16 +9938,16 @@
         <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -9941,7 +9965,7 @@
         <v>20</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9955,16 +9979,16 @@
         <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H184" s="3">
         <v>0</v>
@@ -9982,7 +10006,7 @@
         <v>20</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9996,22 +10020,22 @@
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H185" s="3">
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J185" s="3">
         <v>5</v>
@@ -10023,7 +10047,7 @@
         <v>20</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10037,22 +10061,22 @@
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H186" s="3">
         <v>0</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J186" s="3">
         <v>8</v>
@@ -10064,7 +10088,7 @@
         <v>20</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10078,22 +10102,22 @@
         <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H187" s="3">
         <v>0</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J187" s="3">
         <v>6</v>
@@ -10105,7 +10129,7 @@
         <v>20</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10119,22 +10143,22 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H188" s="3">
         <v>0</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J188" s="3">
         <v>5</v>
@@ -10146,7 +10170,7 @@
         <v>20</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10160,22 +10184,22 @@
         <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H189" s="3">
         <v>0</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J189" s="3">
         <v>4</v>
@@ -10187,7 +10211,7 @@
         <v>20</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10201,22 +10225,22 @@
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H190" s="3">
         <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J190" s="3">
         <v>4</v>
@@ -10228,7 +10252,7 @@
         <v>20</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10242,22 +10266,22 @@
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J191" s="3">
         <v>4</v>
@@ -10269,7 +10293,7 @@
         <v>20</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10283,22 +10307,22 @@
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H192" s="3">
         <v>0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J192" s="3">
         <v>10</v>
@@ -10310,7 +10334,7 @@
         <v>20</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10324,22 +10348,22 @@
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J193" s="3">
         <v>5</v>
@@ -10351,7 +10375,7 @@
         <v>20</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10365,22 +10389,22 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J194" s="3">
         <v>24</v>
@@ -10392,7 +10416,7 @@
         <v>20</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10406,22 +10430,22 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H195" s="3">
         <v>0</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J195" s="3">
         <v>8</v>
@@ -10433,7 +10457,7 @@
         <v>20</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10447,22 +10471,22 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H196" s="3">
         <v>0</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J196" s="3">
         <v>27</v>
@@ -10474,7 +10498,7 @@
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10488,22 +10512,22 @@
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H197" s="3">
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J197" s="3">
         <v>6</v>
@@ -10515,7 +10539,7 @@
         <v>20</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10529,16 +10553,16 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H198" s="3">
         <v>0</v>
@@ -10556,7 +10580,7 @@
         <v>20</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10570,22 +10594,22 @@
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J199" s="3">
         <v>5</v>
@@ -10597,7 +10621,7 @@
         <v>20</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10611,22 +10635,22 @@
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H200" s="3">
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J200" s="3">
         <v>13</v>
@@ -10638,7 +10662,7 @@
         <v>20</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10652,22 +10676,22 @@
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H201" s="3">
         <v>0</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J201" s="3">
         <v>4</v>
@@ -10679,7 +10703,7 @@
         <v>20</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10693,22 +10717,22 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J202" s="3">
         <v>9</v>
@@ -10720,7 +10744,7 @@
         <v>20</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10734,22 +10758,22 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H203" s="3">
         <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J203" s="3">
         <v>4</v>
@@ -10761,7 +10785,7 @@
         <v>20</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10775,22 +10799,22 @@
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J204" s="3">
         <v>8</v>
@@ -10802,7 +10826,7 @@
         <v>20</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10816,22 +10840,22 @@
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H205" s="3">
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J205" s="3">
         <v>4</v>
@@ -10843,7 +10867,7 @@
         <v>20</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10857,22 +10881,22 @@
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H206" s="3">
         <v>0</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J206" s="3">
         <v>9</v>
@@ -10884,7 +10908,7 @@
         <v>20</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10898,22 +10922,22 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H207" s="3">
         <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J207" s="3">
         <v>4</v>
@@ -10925,7 +10949,7 @@
         <v>20</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10939,16 +10963,16 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H208" s="3">
         <v>0</v>
@@ -10966,7 +10990,7 @@
         <v>20</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10980,22 +11004,22 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H209" s="3">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J209" s="3">
         <v>4</v>
@@ -11007,7 +11031,7 @@
         <v>20</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11021,16 +11045,16 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H210" s="3">
         <v>0</v>
@@ -11048,7 +11072,7 @@
         <v>20</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11062,22 +11086,22 @@
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H211" s="3">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J211" s="3">
         <v>4</v>
@@ -11089,7 +11113,7 @@
         <v>20</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11103,22 +11127,22 @@
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H212" s="3">
         <v>0</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J212" s="3">
         <v>20</v>
@@ -11130,7 +11154,7 @@
         <v>20</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11144,16 +11168,16 @@
         <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H213" s="3">
         <v>0</v>
@@ -11171,7 +11195,7 @@
         <v>20</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11185,22 +11209,22 @@
         <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H214" s="3">
         <v>0</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J214" s="3">
         <v>39</v>
@@ -11212,7 +11236,7 @@
         <v>20</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11226,22 +11250,22 @@
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J215" s="3">
         <v>7</v>
@@ -11253,7 +11277,7 @@
         <v>20</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11267,22 +11291,22 @@
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H216" s="3">
         <v>0</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J216" s="3">
         <v>11</v>
@@ -11294,7 +11318,7 @@
         <v>20</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11308,22 +11332,22 @@
         <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J217" s="3">
         <v>26</v>
@@ -11335,7 +11359,7 @@
         <v>20</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11349,22 +11373,22 @@
         <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J218" s="3">
         <v>11</v>
@@ -11376,7 +11400,7 @@
         <v>20</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11390,22 +11414,22 @@
         <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J219" s="3">
         <v>2</v>
@@ -11417,7 +11441,7 @@
         <v>20</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11431,16 +11455,16 @@
         <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H220" s="3">
         <v>0</v>
@@ -11458,7 +11482,7 @@
         <v>20</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11472,22 +11496,22 @@
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J221" s="3">
         <v>17</v>
@@ -11499,7 +11523,7 @@
         <v>20</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11513,22 +11537,22 @@
         <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J222" s="3">
         <v>22</v>
@@ -11540,7 +11564,7 @@
         <v>20</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -11554,22 +11578,22 @@
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H223" s="3">
         <v>0</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J223" s="3">
         <v>43</v>
@@ -11581,7 +11605,7 @@
         <v>20</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11595,22 +11619,22 @@
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H224" s="3">
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J224" s="3">
         <v>9</v>
@@ -11622,7 +11646,7 @@
         <v>20</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11636,22 +11660,22 @@
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H225" s="3">
         <v>0</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J225" s="3">
         <v>14</v>
@@ -11663,7 +11687,7 @@
         <v>20</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11677,22 +11701,22 @@
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H226" s="3">
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J226" s="3">
         <v>19</v>
@@ -11704,7 +11728,7 @@
         <v>20</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11718,22 +11742,22 @@
         <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J227" s="3">
         <v>19</v>
@@ -11745,7 +11769,294 @@
         <v>20</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J228" s="3">
+        <v>2</v>
+      </c>
+      <c r="K228" s="4">
+        <v>1.0531858873091101E-2</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J229" s="3">
+        <v>3</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1.579778830963665E-2</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J230" s="3">
+        <v>3</v>
+      </c>
+      <c r="K230" s="4">
+        <v>1.579778830963665E-2</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J231" s="3">
+        <v>3</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1.579778830963665E-2</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J232" s="3">
+        <v>4</v>
+      </c>
+      <c r="K232" s="4">
+        <v>1.6372641316360362E-2</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J233" s="3">
+        <v>4</v>
+      </c>
+      <c r="K233" s="4">
+        <v>1.6372641316360362E-2</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J234" s="3">
+        <v>4</v>
+      </c>
+      <c r="K234" s="4">
+        <v>1.6372641316360362E-2</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
